--- a/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-17,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-17,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 13,8</t>
+          <t>-66,8; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 16,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 15,98</t>
+          <t>-66,8; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 20,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 13,61</t>
+          <t>-23,99; 13,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 15,13</t>
+          <t>-33,3; -0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 11,8</t>
+          <t>-15,76; 16,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 15,73</t>
+          <t>-25,8; 15,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 19,1</t>
+          <t>-35,44; -1,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 13,31</t>
+          <t>-17,85; 20,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,13</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,13%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-12,12%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 0,0</t>
+          <t>-5,59; 29,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 21,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,65; 9,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 0,0</t>
+          <t>-5,55; 43,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,24; 29,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,6; 11,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>-6,18%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 29,94</t>
+          <t>-32,2; 13,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 21,2</t>
+          <t>-24,19; 15,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 9,44</t>
+          <t>-22,12; 11,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 43,9</t>
+          <t>-34,07; 15,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 29,81</t>
+          <t>-26,11; 19,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 11,3</t>
+          <t>-22,78; 13,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,61; -20,91</t>
+          <t>-90,97; -18,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 16,0</t>
+          <t>-28,99; 15,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 18,04</t>
+          <t>-49,88; 14,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,5</t>
+          <t>-100,0; -21,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 19,82</t>
+          <t>-30,27; 19,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 23,62</t>
+          <t>-55,75; 18,02</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 13,8</t>
+          <t>-25,54; 13,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -0,55</t>
+          <t>-34,77; -0,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 16,29</t>
+          <t>-16,87; 16,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 15,98</t>
+          <t>-27,62; 16,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -1,21</t>
+          <t>-36,59; -1,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 20,03</t>
+          <t>-17,97; 21,57</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 29,94</t>
+          <t>-5,23; 30,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 21,2</t>
+          <t>-20,42; 19,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 9,44</t>
+          <t>-33,48; 7,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 43,9</t>
+          <t>-4,98; 45,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 29,81</t>
+          <t>-22,99; 27,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 11,3</t>
+          <t>-35,85; 9,18</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 13,61</t>
+          <t>-31,2; 13,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 15,13</t>
+          <t>-22,31; 15,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 11,8</t>
+          <t>-21,79; 11,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 15,73</t>
+          <t>-33,53; 15,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 19,1</t>
+          <t>-24,62; 19,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 13,31</t>
+          <t>-22,66; 12,63</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 3,06</t>
+          <t>-22,31; 2,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 2,94</t>
+          <t>-16,08; 3,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 1,57</t>
+          <t>-17,52; 3,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 3,62</t>
+          <t>-24,51; 2,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 3,24</t>
+          <t>-17,7; 3,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 1,78</t>
+          <t>-18,64; 3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 0,0</t>
+          <t>-66,0; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 0,0</t>
+          <t>-66,0; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,97; -18,53</t>
+          <t>-90,89; -20,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 15,27</t>
+          <t>-30,31; 15,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 14,97</t>
+          <t>-50,44; 17,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -21,02</t>
+          <t>-100,0; -21,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 19,32</t>
+          <t>-33,56; 19,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 18,02</t>
+          <t>-54,23; 22,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 13,95</t>
+          <t>-25,88; 13,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -0,59</t>
+          <t>-35,33; -0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 16,78</t>
+          <t>-18,92; 15,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 16,39</t>
+          <t>-27,56; 15,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -1,21</t>
+          <t>-37,0; -1,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 21,57</t>
+          <t>-19,61; 18,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 30,28</t>
+          <t>-4,65; 31,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 19,02</t>
+          <t>-20,15; 19,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 7,82</t>
+          <t>-30,77; 9,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 45,56</t>
+          <t>-4,14; 49,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 27,23</t>
+          <t>-23,19; 26,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 9,18</t>
+          <t>-33,84; 11,51</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 13,63</t>
+          <t>-32,37; 13,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 15,28</t>
+          <t>-23,88; 14,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 11,3</t>
+          <t>-21,72; 9,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 15,71</t>
+          <t>-34,38; 15,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 19,21</t>
+          <t>-25,51; 19,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 12,63</t>
+          <t>-22,31; 10,1</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 2,5</t>
+          <t>-20,94; 3,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 3,39</t>
+          <t>-15,92; 2,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 3,33</t>
+          <t>-17,17; 3,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 2,58</t>
+          <t>-23,18; 4,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 3,85</t>
+          <t>-17,46; 3,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 3,8</t>
+          <t>-18,39; 4,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,13</t>
+          <t>-38,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,13%</t>
+          <t>-41,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-21,02%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,0; 0,0</t>
+          <t>-69,28; -9,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,43; 20,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,18; 11,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,0; 0,0</t>
+          <t>-75,42; -12,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,39; 26,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,91; 14,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-65,04</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,67</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-71,73%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,38%</t>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,89; -20,26</t>
+          <t>-23,99; 13,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 15,28</t>
+          <t>-33,3; -0,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,44; 17,55</t>
+          <t>-15,76; 16,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -21,66</t>
+          <t>-25,8; 15,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 19,55</t>
+          <t>-35,44; -1,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 22,36</t>
+          <t>-17,85; 20,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,97</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-12,12%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 13,71</t>
+          <t>-5,59; 29,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,33; -0,43</t>
+          <t>-19,05; 21,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 15,4</t>
+          <t>-31,65; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 15,9</t>
+          <t>-5,55; 43,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -1,53</t>
+          <t>-21,24; 29,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 18,99</t>
+          <t>-33,6; 11,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>-6,18%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 31,57</t>
+          <t>-32,2; 13,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 19,35</t>
+          <t>-24,19; 15,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 9,88</t>
+          <t>-22,12; 11,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 49,85</t>
+          <t>-34,07; 15,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 26,31</t>
+          <t>-26,11; 19,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,84; 11,51</t>
+          <t>-22,78; 13,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>-9,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-8,5%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 13,47</t>
+          <t>-21,3; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 14,96</t>
+          <t>-17,15; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 9,53</t>
+          <t>-17,91; 1,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 15,52</t>
+          <t>-23,69; 3,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 19,5</t>
+          <t>-18,73; 3,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 10,1</t>
+          <t>-18,71; 1,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,46</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,58</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-7,73</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-9,53%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,52%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-8,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-20,94; 3,78</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-15,92; 2,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-17,17; 3,68</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-23,18; 4,23</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 3,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-18,39; 4,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
